--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5054393333333334</v>
+        <v>0.4312776666666667</v>
       </c>
       <c r="H2">
-        <v>1.516318</v>
+        <v>1.293833</v>
       </c>
       <c r="I2">
-        <v>0.1786582562510795</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="J2">
-        <v>0.1786582562510796</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.19157</v>
+        <v>0.1423196666666667</v>
       </c>
       <c r="N2">
-        <v>0.5747100000000001</v>
+        <v>0.426959</v>
       </c>
       <c r="O2">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207376</v>
       </c>
       <c r="P2">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207377</v>
       </c>
       <c r="Q2">
-        <v>0.09682701308666668</v>
+        <v>0.06137929376077778</v>
       </c>
       <c r="R2">
-        <v>0.8714431177800002</v>
+        <v>0.5524136438470001</v>
       </c>
       <c r="S2">
-        <v>0.007217569320745475</v>
+        <v>0.00449730801668123</v>
       </c>
       <c r="T2">
-        <v>0.007217569320745476</v>
+        <v>0.00449730801668123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5054393333333334</v>
+        <v>0.4312776666666667</v>
       </c>
       <c r="H3">
-        <v>1.516318</v>
+        <v>1.293833</v>
       </c>
       <c r="I3">
-        <v>0.1786582562510795</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="J3">
-        <v>0.1786582562510796</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.064017</v>
       </c>
       <c r="O3">
-        <v>0.777735554431318</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="P3">
-        <v>0.7777355544313179</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="Q3">
-        <v>1.864063125489556</v>
+        <v>1.590554478573444</v>
       </c>
       <c r="R3">
-        <v>16.776568129406</v>
+        <v>14.314990307161</v>
       </c>
       <c r="S3">
-        <v>0.1389488779791658</v>
+        <v>0.1165411488006984</v>
       </c>
       <c r="T3">
-        <v>0.1389488779791658</v>
+        <v>0.1165411488006984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5054393333333334</v>
+        <v>0.4312776666666667</v>
       </c>
       <c r="H4">
-        <v>1.516318</v>
+        <v>1.293833</v>
       </c>
       <c r="I4">
-        <v>0.1786582562510795</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="J4">
-        <v>0.1786582562510796</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7983476666666668</v>
+        <v>0.3139543333333334</v>
       </c>
       <c r="N4">
-        <v>2.395043</v>
+        <v>0.9418630000000001</v>
       </c>
       <c r="O4">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="P4">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="Q4">
-        <v>0.4035163124082223</v>
+        <v>0.1354014923198889</v>
       </c>
       <c r="R4">
-        <v>3.631646811674</v>
+        <v>1.218613430879</v>
       </c>
       <c r="S4">
-        <v>0.03007845500977225</v>
+        <v>0.009920971382534232</v>
       </c>
       <c r="T4">
-        <v>0.03007845500977225</v>
+        <v>0.009920971382534232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5054393333333334</v>
+        <v>0.4312776666666667</v>
       </c>
       <c r="H5">
-        <v>1.516318</v>
+        <v>1.293833</v>
       </c>
       <c r="I5">
-        <v>0.1786582562510795</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="J5">
-        <v>0.1786582562510796</v>
+        <v>0.1323333139342157</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06405566666666666</v>
+        <v>0.04347733333333333</v>
       </c>
       <c r="N5">
-        <v>0.192167</v>
+        <v>0.130432</v>
       </c>
       <c r="O5">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="P5">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="Q5">
-        <v>0.03237625345622222</v>
+        <v>0.01875080287288889</v>
       </c>
       <c r="R5">
-        <v>0.291386281106</v>
+        <v>0.168757225856</v>
       </c>
       <c r="S5">
-        <v>0.002413353941396001</v>
+        <v>0.001373885734301809</v>
       </c>
       <c r="T5">
-        <v>0.002413353941396002</v>
+        <v>0.001373885734301809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1.665224</v>
       </c>
       <c r="H6">
-        <v>4.995672</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I6">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="J6">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.19157</v>
+        <v>0.1423196666666667</v>
       </c>
       <c r="N6">
-        <v>0.5747100000000001</v>
+        <v>0.426959</v>
       </c>
       <c r="O6">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207376</v>
       </c>
       <c r="P6">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207377</v>
       </c>
       <c r="Q6">
-        <v>0.31900696168</v>
+        <v>0.2369941246053334</v>
       </c>
       <c r="R6">
-        <v>2.87106265512</v>
+        <v>2.132947121448001</v>
       </c>
       <c r="S6">
-        <v>0.02377905489726244</v>
+        <v>0.01736474161217866</v>
       </c>
       <c r="T6">
-        <v>0.02377905489726244</v>
+        <v>0.01736474161217866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1.665224</v>
       </c>
       <c r="H7">
-        <v>4.995672</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I7">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="J7">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>11.064017</v>
       </c>
       <c r="O7">
-        <v>0.777735554431318</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="P7">
-        <v>0.7777355544313179</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="Q7">
-        <v>6.141355548269334</v>
+        <v>6.141355548269335</v>
       </c>
       <c r="R7">
-        <v>55.27219993442399</v>
+        <v>55.27219993442401</v>
       </c>
       <c r="S7">
-        <v>0.4577819554684013</v>
+        <v>0.4499818399372121</v>
       </c>
       <c r="T7">
-        <v>0.4577819554684013</v>
+        <v>0.4499818399372121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,43 +912,43 @@
         <v>1.665224</v>
       </c>
       <c r="H8">
-        <v>4.995672</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I8">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="J8">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7983476666666668</v>
+        <v>0.3139543333333334</v>
       </c>
       <c r="N8">
-        <v>2.395043</v>
+        <v>0.9418630000000001</v>
       </c>
       <c r="O8">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="P8">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="Q8">
-        <v>1.329427694877334</v>
+        <v>0.5228042907706668</v>
       </c>
       <c r="R8">
-        <v>11.964849253896</v>
+        <v>4.705238616936001</v>
       </c>
       <c r="S8">
-        <v>0.09909669046702535</v>
+        <v>0.03830627209889342</v>
       </c>
       <c r="T8">
-        <v>0.09909669046702535</v>
+        <v>0.03830627209889342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1.665224</v>
       </c>
       <c r="H9">
-        <v>4.995672</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I9">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="J9">
-        <v>0.5886087537853821</v>
+        <v>0.5109576205649194</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.06405566666666666</v>
+        <v>0.04347733333333333</v>
       </c>
       <c r="N9">
-        <v>0.192167</v>
+        <v>0.130432</v>
       </c>
       <c r="O9">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="P9">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="Q9">
-        <v>0.1066670334693333</v>
+        <v>0.07239949892266667</v>
       </c>
       <c r="R9">
-        <v>0.960003301224</v>
+        <v>0.6515954903040001</v>
       </c>
       <c r="S9">
-        <v>0.007951052952693065</v>
+        <v>0.005304766916635291</v>
       </c>
       <c r="T9">
-        <v>0.007951052952693065</v>
+        <v>0.005304766916635291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2011266666666666</v>
+        <v>0.7182733333333333</v>
       </c>
       <c r="H10">
-        <v>0.6033799999999999</v>
+        <v>2.15482</v>
       </c>
       <c r="I10">
-        <v>0.07109248762909651</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="J10">
-        <v>0.07109248762909652</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.19157</v>
+        <v>0.1423196666666667</v>
       </c>
       <c r="N10">
-        <v>0.5747100000000001</v>
+        <v>0.426959</v>
       </c>
       <c r="O10">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207376</v>
       </c>
       <c r="P10">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207377</v>
       </c>
       <c r="Q10">
-        <v>0.03852983553333333</v>
+        <v>0.1022244213755556</v>
       </c>
       <c r="R10">
-        <v>0.3467685198</v>
+        <v>0.9200197923800001</v>
       </c>
       <c r="S10">
-        <v>0.002872047272901466</v>
+        <v>0.007490061901733103</v>
       </c>
       <c r="T10">
-        <v>0.002872047272901466</v>
+        <v>0.007490061901733105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2011266666666666</v>
+        <v>0.7182733333333333</v>
       </c>
       <c r="H11">
-        <v>0.6033799999999999</v>
+        <v>2.15482</v>
       </c>
       <c r="I11">
-        <v>0.07109248762909651</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="J11">
-        <v>0.07109248762909652</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.064017</v>
       </c>
       <c r="O11">
-        <v>0.777735554431318</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="P11">
-        <v>0.7777355544313179</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="Q11">
-        <v>0.7417562863844444</v>
+        <v>2.648996123548889</v>
       </c>
       <c r="R11">
-        <v>6.675806577459999</v>
+        <v>23.84096511194</v>
       </c>
       <c r="S11">
-        <v>0.05529115528211699</v>
+        <v>0.1940939814170152</v>
       </c>
       <c r="T11">
-        <v>0.05529115528211699</v>
+        <v>0.1940939814170152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2011266666666666</v>
+        <v>0.7182733333333333</v>
       </c>
       <c r="H12">
-        <v>0.6033799999999999</v>
+        <v>2.15482</v>
       </c>
       <c r="I12">
-        <v>0.07109248762909651</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="J12">
-        <v>0.07109248762909652</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.7983476666666668</v>
+        <v>0.3139543333333334</v>
       </c>
       <c r="N12">
-        <v>2.395043</v>
+        <v>0.9418630000000001</v>
       </c>
       <c r="O12">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="P12">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="Q12">
-        <v>0.1605690050377778</v>
+        <v>0.2255050255177778</v>
       </c>
       <c r="R12">
-        <v>1.44512104534</v>
+        <v>2.02954522966</v>
       </c>
       <c r="S12">
-        <v>0.01196895254412094</v>
+        <v>0.01652292649400071</v>
       </c>
       <c r="T12">
-        <v>0.01196895254412094</v>
+        <v>0.01652292649400071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2011266666666666</v>
+        <v>0.7182733333333333</v>
       </c>
       <c r="H13">
-        <v>0.6033799999999999</v>
+        <v>2.15482</v>
       </c>
       <c r="I13">
-        <v>0.07109248762909651</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="J13">
-        <v>0.07109248762909652</v>
+        <v>0.2203951139998181</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.06405566666666666</v>
+        <v>0.04347733333333333</v>
       </c>
       <c r="N13">
-        <v>0.192167</v>
+        <v>0.130432</v>
       </c>
       <c r="O13">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="P13">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="Q13">
-        <v>0.01288330271777778</v>
+        <v>0.03122860913777778</v>
       </c>
       <c r="R13">
-        <v>0.11594972446</v>
+        <v>0.28105748224</v>
       </c>
       <c r="S13">
-        <v>0.0009603325299571191</v>
+        <v>0.002288144187069138</v>
       </c>
       <c r="T13">
-        <v>0.0009603325299571194</v>
+        <v>0.002288144187069138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4572946666666667</v>
+        <v>0.4442506666666666</v>
       </c>
       <c r="H14">
-        <v>1.371884</v>
+        <v>1.332752</v>
       </c>
       <c r="I14">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="J14">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.19157</v>
+        <v>0.1423196666666667</v>
       </c>
       <c r="N14">
-        <v>0.5747100000000001</v>
+        <v>0.426959</v>
       </c>
       <c r="O14">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207376</v>
       </c>
       <c r="P14">
-        <v>0.04039874491219805</v>
+        <v>0.03398470032207377</v>
       </c>
       <c r="Q14">
-        <v>0.08760393929333335</v>
+        <v>0.06322560679644444</v>
       </c>
       <c r="R14">
-        <v>0.7884354536400001</v>
+        <v>0.569030461168</v>
       </c>
       <c r="S14">
-        <v>0.006530073421288664</v>
+        <v>0.004632588791480772</v>
       </c>
       <c r="T14">
-        <v>0.006530073421288666</v>
+        <v>0.004632588791480772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4572946666666667</v>
+        <v>0.4442506666666666</v>
       </c>
       <c r="H15">
-        <v>1.371884</v>
+        <v>1.332752</v>
       </c>
       <c r="I15">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="J15">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.064017</v>
       </c>
       <c r="O15">
-        <v>0.777735554431318</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="P15">
-        <v>0.7777355544313179</v>
+        <v>0.880663722051367</v>
       </c>
       <c r="Q15">
-        <v>1.686505322003111</v>
+        <v>1.638398976087111</v>
       </c>
       <c r="R15">
-        <v>15.178547898028</v>
+        <v>14.745590784784</v>
       </c>
       <c r="S15">
-        <v>0.1257135657016338</v>
+        <v>0.1200467518964414</v>
       </c>
       <c r="T15">
-        <v>0.1257135657016338</v>
+        <v>0.1200467518964414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4572946666666667</v>
+        <v>0.4442506666666666</v>
       </c>
       <c r="H16">
-        <v>1.371884</v>
+        <v>1.332752</v>
       </c>
       <c r="I16">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="J16">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7983476666666668</v>
+        <v>0.3139543333333334</v>
       </c>
       <c r="N16">
-        <v>2.395043</v>
+        <v>0.9418630000000001</v>
       </c>
       <c r="O16">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="P16">
-        <v>0.1683574867511363</v>
+        <v>0.0749695680368592</v>
       </c>
       <c r="Q16">
-        <v>0.3650801301124445</v>
+        <v>0.1394744218862222</v>
       </c>
       <c r="R16">
-        <v>3.285721171012001</v>
+        <v>1.255269796976</v>
       </c>
       <c r="S16">
-        <v>0.02721338873021779</v>
+        <v>0.01021939806143085</v>
       </c>
       <c r="T16">
-        <v>0.0272133887302178</v>
+        <v>0.01021939806143085</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4572946666666667</v>
+        <v>0.4442506666666666</v>
       </c>
       <c r="H17">
-        <v>1.371884</v>
+        <v>1.332752</v>
       </c>
       <c r="I17">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="J17">
-        <v>0.1616405023344417</v>
+        <v>0.1363139515010468</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.06405566666666666</v>
+        <v>0.04347733333333333</v>
       </c>
       <c r="N17">
-        <v>0.192167</v>
+        <v>0.130432</v>
       </c>
       <c r="O17">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="P17">
-        <v>0.01350821390534768</v>
+        <v>0.01038200958970001</v>
       </c>
       <c r="Q17">
-        <v>0.02929231473644444</v>
+        <v>0.01931483431822222</v>
       </c>
       <c r="R17">
-        <v>0.263630832628</v>
+        <v>0.173833508864</v>
       </c>
       <c r="S17">
-        <v>0.002183474481301489</v>
+        <v>0.001415212751693769</v>
       </c>
       <c r="T17">
-        <v>0.002183474481301489</v>
+        <v>0.001415212751693769</v>
       </c>
     </row>
   </sheetData>
